--- a/Test3.xlsx
+++ b/Test3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandra\Documents\Мій проект ТЕСТ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandra\Documents\GitRepo\Test-repo-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F528780-7118-44F5-AC66-6705E665D2B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6154CF0A-87AE-4050-84D9-89B20DCB0445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,42 +337,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
